--- a/backend/Final NameList - GenAI Hackathon Registration.xlsx
+++ b/backend/Final NameList - GenAI Hackathon Registration.xlsx
@@ -475,7 +475,7 @@
         <v>8020000000</v>
       </c>
       <c r="G3" t="str">
-        <v>Absent</v>
+        <v>Present</v>
       </c>
       <c r="H3" t="str">
         <v>Passed</v>
@@ -731,7 +731,7 @@
         <v>6380000000</v>
       </c>
       <c r="G11" t="str">
-        <v>Absent</v>
+        <v>Present</v>
       </c>
       <c r="H11" t="str">
         <v>Passed</v>
